--- a/Core Java/GroupList.xlsx
+++ b/Core Java/GroupList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Wipro Training\Batch 1\Core Java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A4A3AF-81D9-453E-B53B-503103B0D063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37032504-9C35-48F0-85D0-FBA7F81EF7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{76B7F3C1-3B2A-449C-9095-A468E062F8DF}"/>
   </bookViews>
@@ -208,13 +208,19 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -457,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -477,6 +483,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -486,12 +498,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -808,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDE929E-2BEB-4C75-BDA5-325C0DB74BB7}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -831,18 +840,18 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>20426106</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="4">
         <v>20422094</v>
       </c>
@@ -851,7 +860,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="4">
         <v>20422091</v>
       </c>
@@ -860,7 +869,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="4">
         <v>20421521</v>
       </c>
@@ -869,27 +878,27 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="4">
         <v>20421739</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="4">
         <v>20421591</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="19" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="4">
         <v>20425420</v>
       </c>
@@ -898,7 +907,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="4">
         <v>20421565</v>
       </c>
@@ -907,7 +916,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="4">
         <v>20423133</v>
       </c>
@@ -916,7 +925,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="6">
         <v>20422747</v>
       </c>
@@ -1129,7 +1138,7 @@
       <c r="B34" s="9">
         <v>20421796</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="20" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1181,7 +1190,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B40" s="1">
@@ -1192,7 +1201,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
+      <c r="A41" s="14"/>
       <c r="B41" s="1">
         <v>20421367</v>
       </c>
@@ -1201,7 +1210,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="17"/>
+      <c r="A42" s="14"/>
       <c r="B42" s="1">
         <v>20422093</v>
       </c>
@@ -1210,7 +1219,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="17"/>
+      <c r="A43" s="14"/>
       <c r="B43" s="1">
         <v>20425431</v>
       </c>
